--- a/Assets/GameMain/DataTables/Configuration.xlsx
+++ b/Assets/GameMain/DataTables/Configuration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12645" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sound" sheetId="1" r:id="rId1"/>
@@ -13,16 +13,17 @@
     <sheet name="Music" sheetId="15" r:id="rId4"/>
     <sheet name="Scene" sheetId="41" r:id="rId5"/>
     <sheet name="UISound" sheetId="42" r:id="rId6"/>
+    <sheet name="Effect" sheetId="43" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="UIForm" localSheetId="2">UIForm!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -93,9 +94,24 @@
     <t>实体编号</t>
   </si>
   <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>血条</t>
+  </si>
+  <si>
+    <t>HpBar</t>
+  </si>
+  <si>
     <t>界面配置表</t>
   </si>
   <si>
+    <t>UIGroupName</t>
+  </si>
+  <si>
     <t>AllowMultiInstance</t>
   </si>
   <si>
@@ -105,72 +121,87 @@
     <t>界面编号</t>
   </si>
   <si>
+    <t>界面组名称</t>
+  </si>
+  <si>
+    <t>是否允许多个界面实例</t>
+  </si>
+  <si>
+    <t>是否暂停被其覆盖的界面</t>
+  </si>
+  <si>
+    <t>菜单界面</t>
+  </si>
+  <si>
+    <t>MenuPage</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>登录界面</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
+    <t>游戏界面</t>
+  </si>
+  <si>
+    <t>MainPage</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>游戏结束界面</t>
+  </si>
+  <si>
+    <t>GameOverPage</t>
+  </si>
+  <si>
+    <t>关卡选择</t>
+  </si>
+  <si>
+    <t>LevelChoosePage</t>
+  </si>
+  <si>
+    <t>游戏结算界面</t>
+  </si>
+  <si>
+    <t>GameSettlementPage</t>
+  </si>
+  <si>
+    <t>商城界面</t>
+  </si>
+  <si>
+    <t>ShopPage</t>
+  </si>
+  <si>
+    <t>背包界面</t>
+  </si>
+  <si>
+    <t>BackpackPage</t>
+  </si>
+  <si>
+    <t>音乐配置表</t>
+  </si>
+  <si>
+    <t>音乐编号</t>
+  </si>
+  <si>
+    <t>场景配置表</t>
+  </si>
+  <si>
+    <t>BackgroundMusicId</t>
+  </si>
+  <si>
+    <t>场景编号</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>是否允许多个界面实例</t>
-  </si>
-  <si>
-    <t>是否暂停被其覆盖的界面</t>
-  </si>
-  <si>
-    <t>Menu</t>
-  </si>
-  <si>
-    <t>登录界面</t>
-  </si>
-  <si>
-    <t>LoginPage</t>
-  </si>
-  <si>
-    <t>MainPage</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>UIGroupName</t>
-  </si>
-  <si>
-    <t>音乐配置表</t>
-  </si>
-  <si>
-    <t>音乐编号</t>
-  </si>
-  <si>
-    <t>界面组名称</t>
-  </si>
-  <si>
-    <t>菜单界面</t>
-  </si>
-  <si>
-    <t>MenuPage</t>
-  </si>
-  <si>
-    <t>游戏界面</t>
-  </si>
-  <si>
-    <t>游戏结束界面</t>
-  </si>
-  <si>
-    <t>GameOverPage</t>
-  </si>
-  <si>
-    <t>关卡选择</t>
-  </si>
-  <si>
-    <t>LevelChoosePage</t>
-  </si>
-  <si>
-    <t>场景配置表</t>
-  </si>
-  <si>
-    <t>BackgroundMusicId</t>
-  </si>
-  <si>
-    <t>场景编号</t>
-  </si>
-  <si>
     <t>背景音乐编号</t>
   </si>
   <si>
@@ -180,55 +211,35 @@
     <t>战斗场景</t>
   </si>
   <si>
-    <t>商城界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopPage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Menu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackpackPage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏结算界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameSettlementPage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Role</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HpBar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>血条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>特效表</t>
+  </si>
+  <si>
+    <t>特效编号</t>
+  </si>
+  <si>
+    <t>万剑诀</t>
+  </si>
+  <si>
+    <t>WJJ</t>
+  </si>
+  <si>
+    <t>土遁杀</t>
+  </si>
+  <si>
+    <t>TDS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,38 +251,353 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -279,18 +605,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -298,20 +866,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="50"/>
+    <cellStyle name="常规 3" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -573,19 +1188,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+      <selection activeCell="A5" sqref="$A5:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -597,217 +1212,219 @@
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
+    <row r="5" spans="2:4">
+      <c r="B5" s="2">
         <v>1000</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="2">
         <v>2000</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>60</v>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B5:D33">
     <sortCondition ref="B5"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD26"/>
+      <selection activeCell="A13" sqref="$A13:$XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -819,247 +1436,247 @@
     <col min="8" max="8" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1">
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="b">
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1067,91 +1684,93 @@
   <sortState ref="B5:G18">
     <sortCondition ref="B5"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="A1" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="22.25" customWidth="1"/>
@@ -1160,109 +1779,110 @@
     <col min="6" max="6" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="A1" sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
@@ -1271,19 +1891,103 @@
     <col min="6" max="6" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,14 +1998,8 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,19 +2010,13 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -1332,16 +2024,33 @@
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>